--- a/Thesis/Penelitian Mandiri III dan IV/Versi Dosbing/grafik timeline/ppic.xlsx
+++ b/Thesis/Penelitian Mandiri III dan IV/Versi Dosbing/grafik timeline/ppic.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Pengiriman BB I</t>
   </si>
   <si>
-    <t xml:space="preserve">Perhatikan saldo BB dan kapasitas gudang di sini. Jangan sampai BB yang masuk pada pengiriman I bisa membuat gudang penuh.</t>
+    <t xml:space="preserve">Pengiriman BB I +  saldo BB &lt;= kapasitas gudang</t>
   </si>
   <si>
     <t xml:space="preserve">Produksi</t>
@@ -70,7 +70,7 @@
 siap digunakan untuk produksi bulan berikutnya</t>
   </si>
   <si>
-    <t xml:space="preserve">Perhatikan saldo BB dan kapasitas gudang di sini. Jangan sampai BB yang masuk pada pengiriman II bisa membuat gudang penuh.</t>
+    <t xml:space="preserve">Pengiriman BB II +  saldo BB &lt;= kapasitas gudang</t>
   </si>
   <si>
     <t xml:space="preserve">Sudah ada pemakaian BB dari cycle bulan sebelumnya. Misal P2.</t>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">Pengiriman BB III</t>
   </si>
   <si>
-    <t xml:space="preserve">Perhatikan saldo BB dan kapasitas gudang di sini. Jangan sampai BB yang masuk pada pengiriman III bisa membuat gudang penuh.</t>
+    <t xml:space="preserve">Pengiriman BB III +  saldo BB &lt;= kapasitas gudang</t>
   </si>
   <si>
     <t xml:space="preserve">BB I digunakan</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Pengiriman BB IV</t>
   </si>
   <si>
-    <t xml:space="preserve">Perhatikan saldo BB dan kapasitas gudang di sini. Jangan sampai BB yang masuk pada pengiriman IV bisa membuat gudang penuh.</t>
+    <t xml:space="preserve">Pengiriman BB IV +  saldo BB &lt;= kapasitas gudang</t>
   </si>
   <si>
     <t xml:space="preserve">BB II digunakan</t>
@@ -306,10 +306,10 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="65.16"/>
   </cols>
@@ -356,7 +356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>1.2</v>
       </c>
@@ -405,7 +405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2.2</v>
       </c>
@@ -441,7 +441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3.1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>4.2</v>
       </c>
@@ -600,7 +600,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.07"/>
   </cols>
